--- a/Data Science Programing Plan.xlsx
+++ b/Data Science Programing Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="96" windowWidth="22848" windowHeight="8580"/>
+    <workbookView xWindow="90" yWindow="90" windowWidth="22845" windowHeight="8580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>The Institute for Statistics Education –TRANSCRIPT</t>
   </si>
@@ -114,9 +114,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>Jan 9 – Feb 6, 2015 A 5.0</t>
-  </si>
-  <si>
     <t>Introduction to Python for Analytics</t>
   </si>
   <si>
@@ -141,27 +138,44 @@
     <t>May 29 – Jun 26, 2015</t>
   </si>
   <si>
-    <t>Can't find this offered in 2017 or 2018</t>
-  </si>
-  <si>
     <t>Possible Alternative for Predictive Analytics 1?</t>
   </si>
   <si>
-    <t>Predictive Analytics 1 with Python</t>
+    <t>Predictive Analytics 1</t>
+  </si>
+  <si>
+    <t>Jan 9 – Feb 6, 2015</t>
+  </si>
+  <si>
+    <t>3/16/2018 to 4/13/2018</t>
+  </si>
+  <si>
+    <t>6/8/ 2018 to 7/ 6/ 2018</t>
+  </si>
+  <si>
+    <t>8/24/2018 to 9/21/2018</t>
+  </si>
+  <si>
+    <t>5/11/2018 to 6/8/2018</t>
+  </si>
+  <si>
+    <t>3/30/2018 to 4/27/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A </t>
+  </si>
+  <si>
+    <t>Aug  –  Sept, 2018</t>
+  </si>
+  <si>
+    <t>Jan 19 - Feb 22, 2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,13 +186,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -215,15 +222,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color rgb="FF333333"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,11 +242,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
@@ -250,14 +250,8 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -280,33 +274,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5"/>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="20% - Accent1" xfId="5" builtinId="30"/>
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
+  <cellStyles count="4">
+    <cellStyle name="Calculation" xfId="3" builtinId="22"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -606,79 +626,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="87.109375" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="1" max="1" width="87.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>48105</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -689,182 +709,202 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="5">
-        <v>42972</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="B28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="5">
-        <v>42811</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="5">
-        <v>42769</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="2" t="s">
+    <row r="31" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="5">
-        <v>42867</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="39" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="40" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>28</v>
       </c>
     </row>
@@ -879,7 +919,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -891,7 +931,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
